--- a/yy-Koinzidenzen.xlsx
+++ b/yy-Koinzidenzen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Desktop\FP_SS18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21454E-AE15-4D7A-9FCC-12D6515A92DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BE664-9F49-4CA9-BAA4-ED2790C5CA0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{161AEA35-581D-47E0-87FE-3AB3100FCA1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{161AEA35-581D-47E0-87FE-3AB3100FCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="511keV" sheetId="1" r:id="rId1"/>
-    <sheet name="511 - 1275 keV" sheetId="2" r:id="rId2"/>
-    <sheet name="Co60" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId2"/>
+    <sheet name="511 - 1275 keV" sheetId="2" r:id="rId3"/>
+    <sheet name="Co60" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Differenz Kanäle</t>
   </si>
@@ -63,6 +64,18 @@
   </si>
   <si>
     <t>Zeit 700s</t>
+  </si>
+  <si>
+    <t>Achse</t>
+  </si>
+  <si>
+    <t>Steigung</t>
+  </si>
+  <si>
+    <t>W(Theta)</t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -1957,16 +1970,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>566736</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>652461</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1998,16 +2011,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2334,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23458F05-64E6-4CAB-BC7E-C201F6340FAA}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,8 +2567,8 @@
         <v>44.988887516807971</v>
       </c>
       <c r="K10">
-        <f>270/K9</f>
-        <v>34.745308310991959</v>
+        <f>273/K9</f>
+        <v>35.1313672922252</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,11 +2738,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B5E257-63D6-45CE-B5DF-81B21474C1D6}">
+  <dimension ref="B3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>(1275 - (511/596)*1499)/(1-(1499/596))</f>
+        <v>6.7430786267995195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>(511-B3)/596</f>
+        <v>0.84606866002214853</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>(1275 - (511/339)*1432)/(1-(1432/339))</f>
+        <v>274.04117108874664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>(511-B7)/339</f>
+        <v>0.69899359560841701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AA48A2-D84D-4DC4-BA8A-F2C8E2815B28}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2789,17 +2853,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00265C1-4B72-48D1-856F-15A17F6F6A8D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2816,10 +2880,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2836,8 +2906,16 @@
         <f>SQRT(B2)</f>
         <v>33.911649915626342</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f t="shared" ref="F2:F6" si="0">B2/$B$5</f>
+        <v>1.0277033065236818</v>
+      </c>
+      <c r="G2">
+        <f>(F2*C2*D2)/(2*B2*700)</f>
+        <v>50935.08119302948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -2854,8 +2932,16 @@
         <f>SQRT(B3)</f>
         <v>34.496376621320678</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1.0634495084897229</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">(F3*C3*D3)/(2*B3*700)</f>
+        <v>51646.001376228764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
@@ -2869,11 +2955,19 @@
         <v>298235</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="0">SQRT(B4)</f>
+        <f t="shared" ref="E4:E7" si="2">SQRT(B4)</f>
         <v>33.526109228480422</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>B4/$B$5</f>
+        <v>1.0044682752457552</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>54522.787377122433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>55</v>
       </c>
@@ -2887,11 +2981,19 @@
         <v>293102</v>
       </c>
       <c r="E5">
+        <f t="shared" si="2"/>
+        <v>33.451457367355459</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>33.451457367355459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>52471.544369973191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>75</v>
       </c>
@@ -2905,11 +3007,19 @@
         <v>296322</v>
       </c>
       <c r="E6">
+        <f t="shared" si="2"/>
+        <v>32.233522922572398</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>32.233522922572398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.92850759606791777</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>53188.153397165835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90</v>
       </c>
@@ -2923,8 +3033,16 @@
         <v>293432</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33.196385345395662</v>
+      </c>
+      <c r="F7">
+        <f>B7/$B$5</f>
+        <v>0.98480786416443256</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>53323.108867611387</v>
       </c>
     </row>
   </sheetData>

--- a/yy-Koinzidenzen.xlsx
+++ b/yy-Koinzidenzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955BE664-9F49-4CA9-BAA4-ED2790C5CA0C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448012E-F3F6-4CFB-9CC6-3DAAA29BC6AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{161AEA35-581D-47E0-87FE-3AB3100FCA1C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{161AEA35-581D-47E0-87FE-3AB3100FCA1C}"/>
   </bookViews>
   <sheets>
     <sheet name="511keV" sheetId="1" r:id="rId1"/>
@@ -2347,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23458F05-64E6-4CAB-BC7E-C201F6340FAA}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2857,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00265C1-4B72-48D1-856F-15A17F6F6A8D}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2907,7 @@
         <v>33.911649915626342</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F6" si="0">B2/$B$5</f>
+        <f>B2/$B$5</f>
         <v>1.0277033065236818</v>
       </c>
       <c r="G2">
@@ -2933,7 +2933,7 @@
         <v>34.496376621320678</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:F6" si="0">B3/$B$5</f>
         <v>1.0634495084897229</v>
       </c>
       <c r="G3">

--- a/yy-Koinzidenzen.xlsx
+++ b/yy-Koinzidenzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B448012E-F3F6-4CFB-9CC6-3DAAA29BC6AA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB5E48-86C1-4897-9F6D-8B49DF6B893E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{161AEA35-581D-47E0-87FE-3AB3100FCA1C}"/>
   </bookViews>
@@ -2855,15 +2855,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00265C1-4B72-48D1-856F-15A17F6F6A8D}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>50935.08119302948</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>34.496376621320678</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F6" si="0">B3/$B$5</f>
+        <f t="shared" ref="F3:F6" si="0">B3/$B$5</f>
         <v>1.0634495084897229</v>
       </c>
       <c r="G3">
@@ -2941,7 +2941,7 @@
         <v>51646.001376228764</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>45</v>
       </c>
@@ -2966,8 +2966,12 @@
         <f t="shared" si="1"/>
         <v>54522.787377122433</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>AVERAGE(G2:G7)</f>
+        <v>52681.112763521844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>55</v>
       </c>
@@ -2992,8 +2996,12 @@
         <f t="shared" si="1"/>
         <v>52471.544369973191</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>_xlfn.STDEV.P(G2:G7)</f>
+        <v>1170.8270100693446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>75</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>53188.153397165835</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90</v>
       </c>
